--- a/TestData_Repository/BankAccountName.xlsx
+++ b/TestData_Repository/BankAccountName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
   <si>
     <t>BankAccount_Name</t>
   </si>
@@ -385,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -671,6 +671,46 @@
         <v>8</v>
       </c>
     </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
